--- a/PhantomMode.xlsx
+++ b/PhantomMode.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDB7328-9754-48D5-9DEB-6D51CF0FD1DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakid\Documents\GitHub\Warcraft\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6CE18-971B-4546-AE01-1BE266DFCBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,15 @@
     <sheet name="WoW Trivia" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3875,7 +3883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4024,14 +4032,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4353,19 +4361,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4544,11 +4553,11 @@
         <v>15000</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O4:O7" si="0">M6*N6</f>
+        <f>M6*N6</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4577,11 +4586,11 @@
         <v>50</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f>M7*N7</f>
         <v>5500</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4664,14 +4673,14 @@
         <v>45</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H12" si="1">G11*60</f>
+        <f>G11*60</f>
         <v>2700</v>
       </c>
       <c r="J11">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>35</v>
       </c>
@@ -4722,28 +4731,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6419042-F1E9-4DBE-AD62-175CC562A08B}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{5A733CF6-888D-510C-85E3-97F3E093EB4A}">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
@@ -4777,7 +4787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -4794,7 +4804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -4868,7 +4878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
@@ -4879,7 +4889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
@@ -4896,7 +4906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>79</v>
       </c>
@@ -4913,7 +4923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>84</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>88</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>92</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>96</v>
       </c>
@@ -4969,7 +4979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -5062,7 +5072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>135</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>140</v>
       </c>
@@ -5117,12 +5127,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>143</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>146</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>152</v>
       </c>
@@ -5173,15 +5183,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF12CFC0-BC33-411A-8357-FF384CF5E452}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0" xr3:uid="{D9752433-FAC4-516E-A90F-7900CE8255FD}">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -5189,7 +5200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -5197,7 +5208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -5208,7 +5219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>162</v>
       </c>
@@ -5216,12 +5227,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -5229,7 +5240,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -5237,37 +5248,37 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -5281,7 +5292,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>178</v>
       </c>
@@ -5298,7 +5309,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>183</v>
       </c>
@@ -5309,7 +5320,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>184</v>
       </c>
@@ -5320,7 +5331,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>187</v>
       </c>
@@ -5328,52 +5339,52 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>198</v>
       </c>
@@ -5381,7 +5392,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>200</v>
       </c>
@@ -5389,32 +5400,32 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>204</v>
       </c>
@@ -5426,26 +5437,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01386BE5-B65D-4A08-A1D7-3CEA9185935E}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N659"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{B4BFFD0A-55C3-5652-B3E8-D692ABB8B102}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -5459,7 +5471,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>210</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>214</v>
       </c>
@@ -5490,7 +5502,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>218</v>
       </c>
@@ -5504,7 +5516,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>222</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>225</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>227</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>232</v>
       </c>
@@ -5551,7 +5563,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
         <v>234</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
@@ -5570,22 +5582,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>242</v>
       </c>
@@ -5593,33 +5605,33 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>249</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>250</v>
       </c>
@@ -5638,7 +5650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>252</v>
       </c>
@@ -5646,7 +5658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>253</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>254</v>
       </c>
@@ -5662,7 +5674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>255</v>
       </c>
@@ -5670,17 +5682,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>211</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>260</v>
       </c>
@@ -5699,7 +5711,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>227</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>263</v>
       </c>
@@ -5721,7 +5733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F36" s="10" t="s">
         <v>267</v>
       </c>
@@ -5732,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>268</v>
       </c>
@@ -5740,7 +5752,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>11</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>13</v>
       </c>
@@ -5768,7 +5780,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>11</v>
       </c>
@@ -5782,7 +5794,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>16</v>
       </c>
@@ -5796,7 +5808,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>12</v>
       </c>
@@ -5810,7 +5822,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>16</v>
       </c>
@@ -5821,62 +5833,62 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>296</v>
       </c>
@@ -5893,7 +5905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>301</v>
       </c>
@@ -5910,7 +5922,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>304</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>307</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>312</v>
       </c>
@@ -5964,7 +5976,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>315</v>
       </c>
@@ -5981,7 +5993,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>317</v>
       </c>
@@ -5998,7 +6010,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>319</v>
       </c>
@@ -6018,7 +6030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>323</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>326</v>
       </c>
@@ -6055,7 +6067,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>329</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>331</v>
       </c>
@@ -6089,7 +6101,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>334</v>
       </c>
@@ -6106,7 +6118,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>335</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>338</v>
       </c>
@@ -6140,7 +6152,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>340</v>
       </c>
@@ -6157,7 +6169,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>342</v>
       </c>
@@ -6174,7 +6186,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>344</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>346</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>348</v>
       </c>
@@ -6228,7 +6240,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>349</v>
       </c>
@@ -6245,7 +6257,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>352</v>
       </c>
@@ -6262,7 +6274,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>353</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>355</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>358</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>359</v>
       </c>
@@ -6333,7 +6345,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>362</v>
       </c>
@@ -6350,7 +6362,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>364</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>366</v>
       </c>
@@ -6384,7 +6396,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>368</v>
       </c>
@@ -6401,7 +6413,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>369</v>
       </c>
@@ -6418,7 +6430,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>370</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>372</v>
       </c>
@@ -6455,7 +6467,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>373</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>375</v>
       </c>
@@ -6489,7 +6501,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>377</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>379</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>381</v>
       </c>
@@ -6540,7 +6552,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>383</v>
       </c>
@@ -6557,7 +6569,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>385</v>
       </c>
@@ -6574,7 +6586,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>387</v>
       </c>
@@ -6591,7 +6603,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>389</v>
       </c>
@@ -6608,7 +6620,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>391</v>
       </c>
@@ -6625,37 +6637,37 @@
         <v>392</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>394</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>396</v>
       </c>
@@ -6689,47 +6701,47 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>400</v>
       </c>
@@ -6749,7 +6761,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>401</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>403</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>405</v>
       </c>
@@ -6800,7 +6812,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>406</v>
       </c>
@@ -6820,7 +6832,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>408</v>
       </c>
@@ -6840,7 +6852,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>410</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>412</v>
       </c>
@@ -6877,7 +6889,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>414</v>
       </c>
@@ -6894,7 +6906,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>416</v>
       </c>
@@ -6920,7 +6932,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>419</v>
       </c>
@@ -6946,7 +6958,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>422</v>
       </c>
@@ -6978,7 +6990,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>426</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>428</v>
       </c>
@@ -7024,7 +7036,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>430</v>
       </c>
@@ -7052,7 +7064,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>432</v>
       </c>
@@ -7072,7 +7084,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>434</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>435</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>436</v>
       </c>
@@ -7135,7 +7147,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>438</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>440</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>441</v>
       </c>
@@ -7192,7 +7204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>442</v>
       </c>
@@ -7212,7 +7224,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>444</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>445</v>
       </c>
@@ -7252,7 +7264,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>447</v>
       </c>
@@ -7269,7 +7281,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>448</v>
       </c>
@@ -7286,7 +7298,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>450</v>
       </c>
@@ -7306,7 +7318,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>454</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>456</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>458</v>
       </c>
@@ -7360,7 +7372,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>459</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>460</v>
       </c>
@@ -7397,7 +7409,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>462</v>
       </c>
@@ -7414,7 +7426,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>464</v>
       </c>
@@ -7431,7 +7443,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>465</v>
       </c>
@@ -7451,7 +7463,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>466</v>
       </c>
@@ -7471,7 +7483,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>468</v>
       </c>
@@ -7491,7 +7503,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>469</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>472</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>474</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>476</v>
       </c>
@@ -7565,7 +7577,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>478</v>
       </c>
@@ -7582,7 +7594,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>479</v>
       </c>
@@ -7599,7 +7611,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>480</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>482</v>
       </c>
@@ -7636,7 +7648,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>484</v>
       </c>
@@ -7656,7 +7668,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>485</v>
       </c>
@@ -7673,7 +7685,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>486</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>487</v>
       </c>
@@ -7710,7 +7722,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>489</v>
       </c>
@@ -7727,7 +7739,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>490</v>
       </c>
@@ -7747,7 +7759,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>491</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>493</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>494</v>
       </c>
@@ -7804,7 +7816,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>495</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>497</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>498</v>
       </c>
@@ -7864,7 +7876,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>499</v>
       </c>
@@ -7881,7 +7893,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>500</v>
       </c>
@@ -7901,7 +7913,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>501</v>
       </c>
@@ -7921,7 +7933,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>503</v>
       </c>
@@ -7941,7 +7953,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>504</v>
       </c>
@@ -7961,7 +7973,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>506</v>
       </c>
@@ -7978,7 +7990,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>507</v>
       </c>
@@ -7995,7 +8007,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>508</v>
       </c>
@@ -8015,7 +8027,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>511</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>512</v>
       </c>
@@ -8052,7 +8064,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>514</v>
       </c>
@@ -8069,7 +8081,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>516</v>
       </c>
@@ -8086,7 +8098,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>518</v>
       </c>
@@ -8103,7 +8115,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>520</v>
       </c>
@@ -8123,47 +8135,47 @@
         <v>392</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>521</v>
       </c>
@@ -8183,7 +8195,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>523</v>
       </c>
@@ -8206,7 +8218,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>524</v>
       </c>
@@ -8223,7 +8235,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>525</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>526</v>
       </c>
@@ -8260,7 +8272,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>527</v>
       </c>
@@ -8277,7 +8289,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>528</v>
       </c>
@@ -8297,7 +8309,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>529</v>
       </c>
@@ -8314,7 +8326,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>530</v>
       </c>
@@ -8334,7 +8346,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>531</v>
       </c>
@@ -8354,47 +8366,47 @@
         <v>397</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="209" spans="2:8">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="210" spans="2:8">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="2:8">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="2:8">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="2:8">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>533</v>
       </c>
@@ -8411,7 +8423,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="214" spans="2:8">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>534</v>
       </c>
@@ -8428,7 +8440,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="2:8">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>535</v>
       </c>
@@ -8448,7 +8460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="2:8">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>536</v>
       </c>
@@ -8468,7 +8480,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="217" spans="2:8">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>537</v>
       </c>
@@ -8485,7 +8497,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="218" spans="2:8">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>538</v>
       </c>
@@ -8505,7 +8517,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="219" spans="2:8">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>539</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="220" spans="2:8">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>541</v>
       </c>
@@ -8548,7 +8560,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="221" spans="2:8">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>542</v>
       </c>
@@ -8565,7 +8577,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="2:8">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>543</v>
       </c>
@@ -8585,7 +8597,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="223" spans="2:8">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>544</v>
       </c>
@@ -8605,7 +8617,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="224" spans="2:8">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>545</v>
       </c>
@@ -8625,7 +8637,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="2:8">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>546</v>
       </c>
@@ -8645,7 +8657,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="226" spans="2:8">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>547</v>
       </c>
@@ -8662,7 +8674,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="227" spans="2:8">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>549</v>
       </c>
@@ -8679,7 +8691,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="228" spans="2:8">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>551</v>
       </c>
@@ -8699,7 +8711,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="229" spans="2:8">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>552</v>
       </c>
@@ -8719,7 +8731,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="230" spans="2:8">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>553</v>
       </c>
@@ -8736,7 +8748,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="231" spans="2:8">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>554</v>
       </c>
@@ -8756,7 +8768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232" spans="2:8">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>555</v>
       </c>
@@ -8776,7 +8788,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="233" spans="2:8">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>557</v>
       </c>
@@ -8796,7 +8808,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="2:8">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>559</v>
       </c>
@@ -8816,7 +8828,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="235" spans="2:8">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>560</v>
       </c>
@@ -8836,7 +8848,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="236" spans="2:8">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>561</v>
       </c>
@@ -8856,7 +8868,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="237" spans="2:8">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>562</v>
       </c>
@@ -8873,7 +8885,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="238" spans="2:8">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>563</v>
       </c>
@@ -8890,7 +8902,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="239" spans="2:8">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>565</v>
       </c>
@@ -8907,7 +8919,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="240" spans="2:8">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>567</v>
       </c>
@@ -8927,7 +8939,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="241" spans="2:8">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>568</v>
       </c>
@@ -8947,7 +8959,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="242" spans="2:8">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>569</v>
       </c>
@@ -8967,7 +8979,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="243" spans="2:8">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>571</v>
       </c>
@@ -8987,7 +8999,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="244" spans="2:8">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>572</v>
       </c>
@@ -9007,7 +9019,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="2:8">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>574</v>
       </c>
@@ -9027,7 +9039,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="2:8">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>575</v>
       </c>
@@ -9047,7 +9059,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="247" spans="2:8">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>576</v>
       </c>
@@ -9067,7 +9079,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="248" spans="2:8">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>577</v>
       </c>
@@ -9084,7 +9096,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="249" spans="2:8">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>578</v>
       </c>
@@ -9101,7 +9113,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="2:8">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>579</v>
       </c>
@@ -9121,7 +9133,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="251" spans="2:8">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>580</v>
       </c>
@@ -9141,7 +9153,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="252" spans="2:8">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>581</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="253" spans="2:8">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>582</v>
       </c>
@@ -9181,7 +9193,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="254" spans="2:8">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>583</v>
       </c>
@@ -9201,7 +9213,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="255" spans="2:8">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>584</v>
       </c>
@@ -9221,7 +9233,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="256" spans="2:8">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>586</v>
       </c>
@@ -9238,7 +9250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="257" spans="2:8">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>587</v>
       </c>
@@ -9258,7 +9270,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="258" spans="2:8">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>589</v>
       </c>
@@ -9275,7 +9287,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="259" spans="2:8">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>590</v>
       </c>
@@ -9292,7 +9304,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="260" spans="2:8">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>591</v>
       </c>
@@ -9312,7 +9324,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="261" spans="2:8">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>593</v>
       </c>
@@ -9329,7 +9341,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="262" spans="2:8">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>595</v>
       </c>
@@ -9349,7 +9361,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="263" spans="2:8">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>597</v>
       </c>
@@ -9369,7 +9381,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="264" spans="2:8">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>598</v>
       </c>
@@ -9386,7 +9398,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="265" spans="2:8">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>599</v>
       </c>
@@ -9403,7 +9415,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="2:8">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>600</v>
       </c>
@@ -9420,7 +9432,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="267" spans="2:8">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>602</v>
       </c>
@@ -9440,7 +9452,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="268" spans="2:8">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>603</v>
       </c>
@@ -9457,7 +9469,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="269" spans="2:8">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>604</v>
       </c>
@@ -9474,7 +9486,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="270" spans="2:8">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>606</v>
       </c>
@@ -9491,7 +9503,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="2:8">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>607</v>
       </c>
@@ -9511,7 +9523,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="272" spans="2:8">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>609</v>
       </c>
@@ -9528,7 +9540,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="273" spans="2:8">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>610</v>
       </c>
@@ -9551,7 +9563,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="2:8">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>611</v>
       </c>
@@ -9574,7 +9586,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="275" spans="2:8">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>613</v>
       </c>
@@ -9591,7 +9603,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="276" spans="2:8">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>614</v>
       </c>
@@ -9611,7 +9623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="2:8">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>615</v>
       </c>
@@ -9631,7 +9643,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" spans="2:8">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>616</v>
       </c>
@@ -9648,7 +9660,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="279" spans="2:8">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>618</v>
       </c>
@@ -9668,7 +9680,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="280" spans="2:8">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>620</v>
       </c>
@@ -9685,7 +9697,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="281" spans="2:8">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>622</v>
       </c>
@@ -9705,7 +9717,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="282" spans="2:8">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>624</v>
       </c>
@@ -9725,7 +9737,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="283" spans="2:8">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>625</v>
       </c>
@@ -9742,42 +9754,42 @@
         <v>502</v>
       </c>
     </row>
-    <row r="284" spans="2:8">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="285" spans="2:8">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="2:8">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="2:8">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="2:8">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="2:8">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="2:8">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="2:8">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>626</v>
       </c>
@@ -9797,7 +9809,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="292" spans="2:8">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>627</v>
       </c>
@@ -9817,7 +9829,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="293" spans="2:8">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>628</v>
       </c>
@@ -9834,47 +9846,47 @@
         <v>395</v>
       </c>
     </row>
-    <row r="294" spans="2:8">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="2:8">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="2:8">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="297" spans="2:8">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="298" spans="2:8">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="299" spans="2:8">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="2:8">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="301" spans="2:8">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="302" spans="2:8">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>630</v>
       </c>
@@ -9891,7 +9903,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="303" spans="2:8">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>631</v>
       </c>
@@ -9911,7 +9923,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="304" spans="2:8">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>632</v>
       </c>
@@ -9931,7 +9943,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="305" spans="2:8">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>633</v>
       </c>
@@ -9951,7 +9963,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="2:8">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>634</v>
       </c>
@@ -9971,7 +9983,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="307" spans="2:8">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>635</v>
       </c>
@@ -9988,7 +10000,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="308" spans="2:8">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>636</v>
       </c>
@@ -10008,7 +10020,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="309" spans="2:8">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>637</v>
       </c>
@@ -10025,7 +10037,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="310" spans="2:8">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>638</v>
       </c>
@@ -10045,7 +10057,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="311" spans="2:8">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>639</v>
       </c>
@@ -10065,7 +10077,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="2:8">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>641</v>
       </c>
@@ -10082,7 +10094,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="2:8">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>642</v>
       </c>
@@ -10099,7 +10111,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="2:8">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>643</v>
       </c>
@@ -10116,7 +10128,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="315" spans="2:8">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>644</v>
       </c>
@@ -10136,7 +10148,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="316" spans="2:8">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>645</v>
       </c>
@@ -10153,7 +10165,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="317" spans="2:8">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>646</v>
       </c>
@@ -10170,7 +10182,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="318" spans="2:8">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>647</v>
       </c>
@@ -10190,7 +10202,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="2:8">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>648</v>
       </c>
@@ -10210,7 +10222,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="320" spans="2:8">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>650</v>
       </c>
@@ -10227,7 +10239,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="321" spans="2:8">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>651</v>
       </c>
@@ -10247,7 +10259,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="322" spans="2:8">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>652</v>
       </c>
@@ -10267,7 +10279,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="323" spans="2:8">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>653</v>
       </c>
@@ -10284,7 +10296,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="324" spans="2:8">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>654</v>
       </c>
@@ -10304,7 +10316,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="325" spans="2:8">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>655</v>
       </c>
@@ -10324,7 +10336,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="326" spans="2:8">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>656</v>
       </c>
@@ -10344,7 +10356,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="327" spans="2:8">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>657</v>
       </c>
@@ -10361,7 +10373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="328" spans="2:8">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>659</v>
       </c>
@@ -10381,7 +10393,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="2:8">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>660</v>
       </c>
@@ -10401,7 +10413,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="330" spans="2:8">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>661</v>
       </c>
@@ -10421,7 +10433,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="331" spans="2:8">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>662</v>
       </c>
@@ -10441,7 +10453,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="2:8">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>663</v>
       </c>
@@ -10458,7 +10470,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="333" spans="2:8">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>665</v>
       </c>
@@ -10478,7 +10490,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="334" spans="2:8">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>666</v>
       </c>
@@ -10495,7 +10507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="335" spans="2:8">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>667</v>
       </c>
@@ -10512,7 +10524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="336" spans="2:8">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>668</v>
       </c>
@@ -10532,7 +10544,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="337" spans="2:8">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>670</v>
       </c>
@@ -10549,7 +10561,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="338" spans="2:8">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>671</v>
       </c>
@@ -10569,7 +10581,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="339" spans="2:8">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>672</v>
       </c>
@@ -10589,7 +10601,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="340" spans="2:8">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>673</v>
       </c>
@@ -10606,7 +10618,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="341" spans="2:8">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>674</v>
       </c>
@@ -10626,7 +10638,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="342" spans="2:8">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>676</v>
       </c>
@@ -10643,7 +10655,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="343" spans="2:8">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>677</v>
       </c>
@@ -10663,7 +10675,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="344" spans="2:8">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>678</v>
       </c>
@@ -10680,7 +10692,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="345" spans="2:8">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>679</v>
       </c>
@@ -10697,7 +10709,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="2:8">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>681</v>
       </c>
@@ -10714,7 +10726,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="2:8">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>682</v>
       </c>
@@ -10734,7 +10746,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="348" spans="2:8">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>683</v>
       </c>
@@ -10754,7 +10766,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="2:8">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>684</v>
       </c>
@@ -10771,7 +10783,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="2:8">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>685</v>
       </c>
@@ -10788,7 +10800,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="351" spans="2:8">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>686</v>
       </c>
@@ -10808,7 +10820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="352" spans="2:8">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>687</v>
       </c>
@@ -10828,7 +10840,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="353" spans="2:8">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>688</v>
       </c>
@@ -10848,7 +10860,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="354" spans="2:8">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>689</v>
       </c>
@@ -10865,7 +10877,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="355" spans="2:8">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>691</v>
       </c>
@@ -10882,7 +10894,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="356" spans="2:8">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>693</v>
       </c>
@@ -10899,7 +10911,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="357" spans="2:8">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>694</v>
       </c>
@@ -10916,7 +10928,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="358" spans="2:8">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>695</v>
       </c>
@@ -10936,7 +10948,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="359" spans="2:8">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>697</v>
       </c>
@@ -10956,7 +10968,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="360" spans="2:8">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>698</v>
       </c>
@@ -10976,7 +10988,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="361" spans="2:8">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>699</v>
       </c>
@@ -10996,7 +11008,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="2:8">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>701</v>
       </c>
@@ -11016,7 +11028,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="363" spans="2:8">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>702</v>
       </c>
@@ -11036,42 +11048,42 @@
         <v>621</v>
       </c>
     </row>
-    <row r="364" spans="2:8">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="365" spans="2:8">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="366" spans="2:8">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="367" spans="2:8">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="368" spans="2:8">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="369" spans="2:8">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="370" spans="2:8">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="371" spans="2:8">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>703</v>
       </c>
@@ -11091,7 +11103,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="2:8">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>704</v>
       </c>
@@ -11111,7 +11123,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="373" spans="2:8">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>705</v>
       </c>
@@ -11131,47 +11143,47 @@
         <v>395</v>
       </c>
     </row>
-    <row r="374" spans="2:8">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="375" spans="2:8">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="376" spans="2:8">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="377" spans="2:8">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C377" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="378" spans="2:8">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C378" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="379" spans="2:8">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C379" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="380" spans="2:8">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C380" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="381" spans="2:8">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C381" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="382" spans="2:8">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>707</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="383" spans="2:8">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>709</v>
       </c>
@@ -11211,7 +11223,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="384" spans="2:8">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>710</v>
       </c>
@@ -11231,7 +11243,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="385" spans="2:8">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>711</v>
       </c>
@@ -11251,7 +11263,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="386" spans="2:8">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>712</v>
       </c>
@@ -11268,7 +11280,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="387" spans="2:8">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>713</v>
       </c>
@@ -11285,7 +11297,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="388" spans="2:8">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>714</v>
       </c>
@@ -11305,7 +11317,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="389" spans="2:8">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>715</v>
       </c>
@@ -11325,7 +11337,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="390" spans="2:8">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>716</v>
       </c>
@@ -11345,7 +11357,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="391" spans="2:8">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>718</v>
       </c>
@@ -11365,7 +11377,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="392" spans="2:8">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>719</v>
       </c>
@@ -11385,7 +11397,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="393" spans="2:8">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>720</v>
       </c>
@@ -11402,7 +11414,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="394" spans="2:8">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>721</v>
       </c>
@@ -11419,7 +11431,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="395" spans="2:8">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>324</v>
       </c>
@@ -11439,7 +11451,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="396" spans="2:8">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>722</v>
       </c>
@@ -11459,7 +11471,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="397" spans="2:8">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>723</v>
       </c>
@@ -11479,7 +11491,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="398" spans="2:8">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>724</v>
       </c>
@@ -11499,7 +11511,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="399" spans="2:8">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>725</v>
       </c>
@@ -11516,7 +11528,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="400" spans="2:8">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>726</v>
       </c>
@@ -11533,7 +11545,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="401" spans="2:8">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>728</v>
       </c>
@@ -11550,7 +11562,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="402" spans="2:8">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>729</v>
       </c>
@@ -11567,7 +11579,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="403" spans="2:8">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>730</v>
       </c>
@@ -11587,7 +11599,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="404" spans="2:8">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>731</v>
       </c>
@@ -11607,7 +11619,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="405" spans="2:8">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>732</v>
       </c>
@@ -11627,7 +11639,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="406" spans="2:8">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>733</v>
       </c>
@@ -11644,7 +11656,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="2:8">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>734</v>
       </c>
@@ -11664,7 +11676,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="408" spans="2:8">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
         <v>735</v>
       </c>
@@ -11681,7 +11693,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="409" spans="2:8">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>736</v>
       </c>
@@ -11698,7 +11710,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="410" spans="2:8">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>737</v>
       </c>
@@ -11715,7 +11727,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="411" spans="2:8">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>739</v>
       </c>
@@ -11735,7 +11747,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="412" spans="2:8">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>740</v>
       </c>
@@ -11752,7 +11764,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="413" spans="2:8">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>741</v>
       </c>
@@ -11769,7 +11781,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="414" spans="2:8">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>743</v>
       </c>
@@ -11789,7 +11801,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="415" spans="2:8">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>744</v>
       </c>
@@ -11809,7 +11821,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="416" spans="2:8">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>745</v>
       </c>
@@ -11829,7 +11841,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="417" spans="2:8">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>746</v>
       </c>
@@ -11849,7 +11861,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="418" spans="2:8">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>748</v>
       </c>
@@ -11869,7 +11881,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="419" spans="2:8">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>749</v>
       </c>
@@ -11889,7 +11901,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="420" spans="2:8">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>750</v>
       </c>
@@ -11906,7 +11918,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="421" spans="2:8">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>751</v>
       </c>
@@ -11926,7 +11938,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="422" spans="2:8">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>752</v>
       </c>
@@ -11946,7 +11958,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="423" spans="2:8">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>754</v>
       </c>
@@ -11966,7 +11978,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="424" spans="2:8">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>756</v>
       </c>
@@ -11983,7 +11995,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="425" spans="2:8">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>757</v>
       </c>
@@ -12003,7 +12015,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="426" spans="2:8">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>758</v>
       </c>
@@ -12023,42 +12035,42 @@
         <v>623</v>
       </c>
     </row>
-    <row r="427" spans="2:8">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="428" spans="2:8">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="429" spans="2:8">
+    <row r="429" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C429" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="430" spans="2:8">
+    <row r="430" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C430" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="431" spans="2:8">
+    <row r="431" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C431" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="432" spans="2:8">
+    <row r="432" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="433" spans="2:8">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C433" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="434" spans="2:8">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>759</v>
       </c>
@@ -12075,7 +12087,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="435" spans="2:8">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>760</v>
       </c>
@@ -12095,7 +12107,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="436" spans="2:8">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
         <v>761</v>
       </c>
@@ -12115,47 +12127,47 @@
         <v>395</v>
       </c>
     </row>
-    <row r="437" spans="2:8">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="438" spans="2:8">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="439" spans="2:8">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C439" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="440" spans="2:8">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C440" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="441" spans="2:8">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C441" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="442" spans="2:8">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C442" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="443" spans="2:8">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C443" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="444" spans="2:8">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C444" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="445" spans="2:8">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>763</v>
       </c>
@@ -12175,7 +12187,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="446" spans="2:8">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>765</v>
       </c>
@@ -12195,7 +12207,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="447" spans="2:8">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>766</v>
       </c>
@@ -12212,7 +12224,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="448" spans="2:8">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>769</v>
       </c>
@@ -12232,7 +12244,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="449" spans="2:8">
+    <row r="449" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>770</v>
       </c>
@@ -12252,7 +12264,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="450" spans="2:8">
+    <row r="450" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>771</v>
       </c>
@@ -12272,7 +12284,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="451" spans="2:8">
+    <row r="451" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>772</v>
       </c>
@@ -12292,7 +12304,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="452" spans="2:8">
+    <row r="452" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>773</v>
       </c>
@@ -12312,7 +12324,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="453" spans="2:8">
+    <row r="453" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>774</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="454" spans="2:8">
+    <row r="454" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>775</v>
       </c>
@@ -12349,7 +12361,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="455" spans="2:8">
+    <row r="455" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>776</v>
       </c>
@@ -12369,7 +12381,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="456" spans="2:8">
+    <row r="456" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>777</v>
       </c>
@@ -12386,7 +12398,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="457" spans="2:8">
+    <row r="457" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>778</v>
       </c>
@@ -12406,7 +12418,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="458" spans="2:8">
+    <row r="458" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>779</v>
       </c>
@@ -12423,7 +12435,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="459" spans="2:8">
+    <row r="459" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>780</v>
       </c>
@@ -12443,7 +12455,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="460" spans="2:8">
+    <row r="460" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>781</v>
       </c>
@@ -12460,7 +12472,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="461" spans="2:8">
+    <row r="461" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
         <v>782</v>
       </c>
@@ -12480,7 +12492,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="462" spans="2:8">
+    <row r="462" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>784</v>
       </c>
@@ -12500,7 +12512,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="463" spans="2:8">
+    <row r="463" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>785</v>
       </c>
@@ -12517,7 +12529,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="464" spans="2:8">
+    <row r="464" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
         <v>786</v>
       </c>
@@ -12537,7 +12549,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="465" spans="2:8">
+    <row r="465" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
         <v>787</v>
       </c>
@@ -12557,7 +12569,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="466" spans="2:8">
+    <row r="466" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>789</v>
       </c>
@@ -12574,7 +12586,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="467" spans="2:8">
+    <row r="467" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>790</v>
       </c>
@@ -12594,7 +12606,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="468" spans="2:8">
+    <row r="468" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>791</v>
       </c>
@@ -12614,7 +12626,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="469" spans="2:8">
+    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>792</v>
       </c>
@@ -12631,7 +12643,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="470" spans="2:8">
+    <row r="470" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>793</v>
       </c>
@@ -12648,7 +12660,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="471" spans="2:8">
+    <row r="471" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>794</v>
       </c>
@@ -12665,7 +12677,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="472" spans="2:8">
+    <row r="472" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>795</v>
       </c>
@@ -12682,7 +12694,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="473" spans="2:8">
+    <row r="473" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>797</v>
       </c>
@@ -12702,7 +12714,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="474" spans="2:8">
+    <row r="474" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>798</v>
       </c>
@@ -12722,7 +12734,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="475" spans="2:8">
+    <row r="475" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>799</v>
       </c>
@@ -12742,7 +12754,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="476" spans="2:8">
+    <row r="476" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>801</v>
       </c>
@@ -12762,7 +12774,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="477" spans="2:8">
+    <row r="477" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>803</v>
       </c>
@@ -12782,7 +12794,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="2:8">
+    <row r="478" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>804</v>
       </c>
@@ -12799,7 +12811,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="2:8">
+    <row r="479" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
         <v>806</v>
       </c>
@@ -12819,7 +12831,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="480" spans="2:8">
+    <row r="480" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>807</v>
       </c>
@@ -12836,7 +12848,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="481" spans="2:8">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>808</v>
       </c>
@@ -12856,7 +12868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="482" spans="2:8">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>809</v>
       </c>
@@ -12876,7 +12888,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="483" spans="2:8">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>810</v>
       </c>
@@ -12893,7 +12905,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="484" spans="2:8">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>811</v>
       </c>
@@ -12910,7 +12922,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="485" spans="2:8">
+    <row r="485" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>812</v>
       </c>
@@ -12927,7 +12939,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="486" spans="2:8">
+    <row r="486" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>813</v>
       </c>
@@ -12944,7 +12956,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="487" spans="2:8">
+    <row r="487" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>815</v>
       </c>
@@ -12964,7 +12976,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="488" spans="2:8">
+    <row r="488" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>816</v>
       </c>
@@ -12981,7 +12993,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="489" spans="2:8">
+    <row r="489" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>817</v>
       </c>
@@ -13001,7 +13013,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="490" spans="2:8">
+    <row r="490" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>818</v>
       </c>
@@ -13018,7 +13030,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="2:8">
+    <row r="491" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>819</v>
       </c>
@@ -13038,7 +13050,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="492" spans="2:8">
+    <row r="492" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>820</v>
       </c>
@@ -13055,7 +13067,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="493" spans="2:8">
+    <row r="493" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>821</v>
       </c>
@@ -13075,7 +13087,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="494" spans="2:8">
+    <row r="494" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>822</v>
       </c>
@@ -13092,7 +13104,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="495" spans="2:8">
+    <row r="495" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
         <v>823</v>
       </c>
@@ -13112,7 +13124,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="496" spans="2:8">
+    <row r="496" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>824</v>
       </c>
@@ -13129,7 +13141,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="497" spans="2:8">
+    <row r="497" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>826</v>
       </c>
@@ -13146,7 +13158,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="498" spans="2:8">
+    <row r="498" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
         <v>828</v>
       </c>
@@ -13166,7 +13178,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="499" spans="2:8">
+    <row r="499" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>829</v>
       </c>
@@ -13186,7 +13198,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="500" spans="2:8">
+    <row r="500" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>830</v>
       </c>
@@ -13206,7 +13218,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="501" spans="2:8">
+    <row r="501" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>832</v>
       </c>
@@ -13226,7 +13238,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="502" spans="2:8">
+    <row r="502" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
         <v>833</v>
       </c>
@@ -13246,47 +13258,47 @@
         <v>392</v>
       </c>
     </row>
-    <row r="503" spans="2:8">
+    <row r="503" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="504" spans="2:8">
+    <row r="504" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="505" spans="2:8">
+    <row r="505" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C505" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="506" spans="2:8">
+    <row r="506" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C506" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="507" spans="2:8">
+    <row r="507" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C507" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="508" spans="2:8">
+    <row r="508" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C508" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="509" spans="2:8">
+    <row r="509" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C509" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="510" spans="2:8">
+    <row r="510" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C510" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="511" spans="2:8">
+    <row r="511" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>834</v>
       </c>
@@ -13306,7 +13318,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="512" spans="2:8">
+    <row r="512" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>835</v>
       </c>
@@ -13326,7 +13338,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="513" spans="2:8">
+    <row r="513" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>837</v>
       </c>
@@ -13346,47 +13358,47 @@
         <v>395</v>
       </c>
     </row>
-    <row r="514" spans="2:8">
+    <row r="514" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="515" spans="2:8">
+    <row r="515" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="516" spans="2:8">
+    <row r="516" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C516" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="517" spans="2:8">
+    <row r="517" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C517" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="518" spans="2:8">
+    <row r="518" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C518" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="519" spans="2:8">
+    <row r="519" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C519" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="520" spans="2:8">
+    <row r="520" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C520" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="521" spans="2:8">
+    <row r="521" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C521" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="522" spans="2:8">
+    <row r="522" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>839</v>
       </c>
@@ -13406,7 +13418,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="2:8">
+    <row r="523" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>840</v>
       </c>
@@ -13426,7 +13438,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="524" spans="2:8">
+    <row r="524" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>841</v>
       </c>
@@ -13443,7 +13455,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="525" spans="2:8">
+    <row r="525" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>842</v>
       </c>
@@ -13460,7 +13472,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="526" spans="2:8">
+    <row r="526" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>843</v>
       </c>
@@ -13477,7 +13489,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="527" spans="2:8">
+    <row r="527" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>845</v>
       </c>
@@ -13497,7 +13509,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="528" spans="2:8">
+    <row r="528" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>846</v>
       </c>
@@ -13514,7 +13526,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="529" spans="2:8">
+    <row r="529" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>848</v>
       </c>
@@ -13531,7 +13543,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="530" spans="2:8">
+    <row r="530" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>850</v>
       </c>
@@ -13548,7 +13560,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="531" spans="2:8">
+    <row r="531" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>851</v>
       </c>
@@ -13565,7 +13577,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="532" spans="2:8">
+    <row r="532" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>852</v>
       </c>
@@ -13585,7 +13597,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="533" spans="2:8">
+    <row r="533" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>853</v>
       </c>
@@ -13602,7 +13614,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="534" spans="2:8">
+    <row r="534" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>854</v>
       </c>
@@ -13622,7 +13634,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="535" spans="2:8">
+    <row r="535" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>855</v>
       </c>
@@ -13642,7 +13654,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="536" spans="2:8">
+    <row r="536" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>856</v>
       </c>
@@ -13662,7 +13674,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="537" spans="2:8">
+    <row r="537" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>857</v>
       </c>
@@ -13682,7 +13694,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="538" spans="2:8">
+    <row r="538" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>858</v>
       </c>
@@ -13702,7 +13714,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="539" spans="2:8">
+    <row r="539" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>859</v>
       </c>
@@ -13719,7 +13731,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="540" spans="2:8">
+    <row r="540" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>860</v>
       </c>
@@ -13736,7 +13748,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="541" spans="2:8">
+    <row r="541" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>861</v>
       </c>
@@ -13753,7 +13765,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="542" spans="2:8">
+    <row r="542" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>862</v>
       </c>
@@ -13770,7 +13782,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="543" spans="2:8">
+    <row r="543" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>863</v>
       </c>
@@ -13790,7 +13802,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="544" spans="2:8">
+    <row r="544" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>865</v>
       </c>
@@ -13810,7 +13822,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="545" spans="2:8">
+    <row r="545" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>866</v>
       </c>
@@ -13830,7 +13842,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="546" spans="2:8">
+    <row r="546" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>867</v>
       </c>
@@ -13850,7 +13862,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="547" spans="2:8">
+    <row r="547" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>868</v>
       </c>
@@ -13867,7 +13879,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="548" spans="2:8">
+    <row r="548" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>869</v>
       </c>
@@ -13884,7 +13896,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="549" spans="2:8">
+    <row r="549" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>870</v>
       </c>
@@ -13904,7 +13916,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="550" spans="2:8">
+    <row r="550" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>872</v>
       </c>
@@ -13924,7 +13936,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="551" spans="2:8">
+    <row r="551" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
         <v>873</v>
       </c>
@@ -13941,7 +13953,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="552" spans="2:8">
+    <row r="552" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
         <v>874</v>
       </c>
@@ -13961,7 +13973,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="553" spans="2:8">
+    <row r="553" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
         <v>875</v>
       </c>
@@ -13978,7 +13990,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="554" spans="2:8">
+    <row r="554" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
         <v>876</v>
       </c>
@@ -13998,7 +14010,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="555" spans="2:8">
+    <row r="555" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>877</v>
       </c>
@@ -14015,7 +14027,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="556" spans="2:8">
+    <row r="556" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>878</v>
       </c>
@@ -14032,7 +14044,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="557" spans="2:8">
+    <row r="557" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
         <v>879</v>
       </c>
@@ -14049,7 +14061,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="558" spans="2:8">
+    <row r="558" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>880</v>
       </c>
@@ -14069,7 +14081,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="559" spans="2:8">
+    <row r="559" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
         <v>881</v>
       </c>
@@ -14089,7 +14101,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="560" spans="2:8">
+    <row r="560" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
         <v>882</v>
       </c>
@@ -14106,7 +14118,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="561" spans="2:8">
+    <row r="561" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
         <v>883</v>
       </c>
@@ -14123,7 +14135,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="562" spans="2:8">
+    <row r="562" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
         <v>884</v>
       </c>
@@ -14143,7 +14155,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="563" spans="2:8">
+    <row r="563" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
         <v>885</v>
       </c>
@@ -14163,7 +14175,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="564" spans="2:8">
+    <row r="564" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
         <v>886</v>
       </c>
@@ -14180,7 +14192,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="565" spans="2:8">
+    <row r="565" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>888</v>
       </c>
@@ -14197,42 +14209,42 @@
         <v>502</v>
       </c>
     </row>
-    <row r="566" spans="2:8">
+    <row r="566" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="567" spans="2:8">
+    <row r="567" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="568" spans="2:8">
+    <row r="568" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C568" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="569" spans="2:8">
+    <row r="569" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C569" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="570" spans="2:8">
+    <row r="570" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C570" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="571" spans="2:8">
+    <row r="571" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C571" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="572" spans="2:8">
+    <row r="572" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C572" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="573" spans="2:8">
+    <row r="573" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
         <v>890</v>
       </c>
@@ -14252,7 +14264,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="574" spans="2:8">
+    <row r="574" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
         <v>891</v>
       </c>
@@ -14269,7 +14281,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="575" spans="2:8">
+    <row r="575" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
         <v>892</v>
       </c>
@@ -14289,7 +14301,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="576" spans="2:8">
+    <row r="576" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>893</v>
       </c>
@@ -14306,7 +14318,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="577" spans="2:7">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>894</v>
       </c>
@@ -14323,7 +14335,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="578" spans="2:7">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
         <v>895</v>
       </c>
@@ -14340,7 +14352,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="579" spans="2:7">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
         <v>896</v>
       </c>
@@ -14357,7 +14369,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="580" spans="2:7">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
         <v>897</v>
       </c>
@@ -14374,7 +14386,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="581" spans="2:7">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
         <v>898</v>
       </c>
@@ -14391,7 +14403,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="582" spans="2:7">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
         <v>899</v>
       </c>
@@ -14408,7 +14420,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="583" spans="2:7">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
         <v>901</v>
       </c>
@@ -14428,7 +14440,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="584" spans="2:7">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
         <v>903</v>
       </c>
@@ -14445,7 +14457,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="585" spans="2:7">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
         <v>904</v>
       </c>
@@ -14462,7 +14474,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="586" spans="2:7">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
         <v>905</v>
       </c>
@@ -14479,7 +14491,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="587" spans="2:7">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>906</v>
       </c>
@@ -14499,7 +14511,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="588" spans="2:7">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
         <v>908</v>
       </c>
@@ -14516,7 +14528,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="589" spans="2:7">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B589" t="s">
         <v>909</v>
       </c>
@@ -14533,7 +14545,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="590" spans="2:7">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
         <v>910</v>
       </c>
@@ -14553,7 +14565,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="591" spans="2:7">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
         <v>911</v>
       </c>
@@ -14570,7 +14582,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="592" spans="2:7">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B592" t="s">
         <v>913</v>
       </c>
@@ -14587,7 +14599,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="593" spans="2:7">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B593" t="s">
         <v>915</v>
       </c>
@@ -14604,7 +14616,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="594" spans="2:7">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B594" t="s">
         <v>916</v>
       </c>
@@ -14621,7 +14633,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="595" spans="2:7">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B595" t="s">
         <v>918</v>
       </c>
@@ -14638,7 +14650,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="596" spans="2:7">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>919</v>
       </c>
@@ -14658,42 +14670,42 @@
         <v>920</v>
       </c>
     </row>
-    <row r="597" spans="2:7">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B597" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="598" spans="2:7">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B598" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="599" spans="2:7">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C599" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="600" spans="2:7">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C600" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="601" spans="2:7">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C601" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="602" spans="2:7">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C602" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="603" spans="2:7">
+    <row r="603" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C603" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="604" spans="2:7">
+    <row r="604" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B604" t="s">
         <v>921</v>
       </c>
@@ -14713,42 +14725,42 @@
         <v>836</v>
       </c>
     </row>
-    <row r="605" spans="2:7">
+    <row r="605" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="606" spans="2:7">
+    <row r="606" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B606" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="607" spans="2:7">
+    <row r="607" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="608" spans="2:7">
+    <row r="608" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C608" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="609" spans="2:7">
+    <row r="609" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C609" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="610" spans="2:7">
+    <row r="610" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="611" spans="2:7">
+    <row r="611" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="612" spans="2:7">
+    <row r="612" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B612" t="s">
         <v>923</v>
       </c>
@@ -14765,7 +14777,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="613" spans="2:7">
+    <row r="613" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B613" t="s">
         <v>924</v>
       </c>
@@ -14785,7 +14797,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="614" spans="2:7">
+    <row r="614" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B614" t="s">
         <v>925</v>
       </c>
@@ -14805,7 +14817,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="615" spans="2:7">
+    <row r="615" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
         <v>926</v>
       </c>
@@ -14822,7 +14834,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="2:7">
+    <row r="616" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B616" t="s">
         <v>927</v>
       </c>
@@ -14839,7 +14851,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="617" spans="2:7">
+    <row r="617" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B617" t="s">
         <v>929</v>
       </c>
@@ -14856,7 +14868,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="618" spans="2:7">
+    <row r="618" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B618" t="s">
         <v>930</v>
       </c>
@@ -14873,7 +14885,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="619" spans="2:7">
+    <row r="619" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B619" t="s">
         <v>931</v>
       </c>
@@ -14893,7 +14905,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="620" spans="2:7">
+    <row r="620" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B620" t="s">
         <v>932</v>
       </c>
@@ -14913,7 +14925,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="621" spans="2:7">
+    <row r="621" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B621" t="s">
         <v>933</v>
       </c>
@@ -14930,7 +14942,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="622" spans="2:7">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B622" t="s">
         <v>934</v>
       </c>
@@ -14947,7 +14959,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="623" spans="2:7">
+    <row r="623" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B623" t="s">
         <v>935</v>
       </c>
@@ -14967,7 +14979,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="624" spans="2:7">
+    <row r="624" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B624" t="s">
         <v>936</v>
       </c>
@@ -14987,7 +14999,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="625" spans="2:7">
+    <row r="625" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B625" t="s">
         <v>937</v>
       </c>
@@ -15007,7 +15019,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="626" spans="2:7">
+    <row r="626" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B626" t="s">
         <v>938</v>
       </c>
@@ -15027,7 +15039,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="627" spans="2:7">
+    <row r="627" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B627" t="s">
         <v>939</v>
       </c>
@@ -15047,7 +15059,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="628" spans="2:7">
+    <row r="628" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B628" t="s">
         <v>940</v>
       </c>
@@ -15064,7 +15076,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="629" spans="2:7">
+    <row r="629" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B629" t="s">
         <v>941</v>
       </c>
@@ -15081,7 +15093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="630" spans="2:7">
+    <row r="630" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B630" t="s">
         <v>942</v>
       </c>
@@ -15098,7 +15110,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="631" spans="2:7">
+    <row r="631" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B631" t="s">
         <v>943</v>
       </c>
@@ -15115,7 +15127,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="632" spans="2:7">
+    <row r="632" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B632" t="s">
         <v>944</v>
       </c>
@@ -15132,7 +15144,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="633" spans="2:7">
+    <row r="633" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B633" t="s">
         <v>945</v>
       </c>
@@ -15152,42 +15164,42 @@
         <v>361</v>
       </c>
     </row>
-    <row r="634" spans="2:7">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="635" spans="2:7">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B635" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="636" spans="2:7">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="637" spans="2:7">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C637" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="638" spans="2:7">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C638" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="639" spans="2:7">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C639" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="640" spans="2:7">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="641" spans="2:7">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
         <v>947</v>
       </c>
@@ -15204,7 +15216,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="642" spans="2:7">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B642" t="s">
         <v>949</v>
       </c>
@@ -15221,7 +15233,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="643" spans="2:7">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B643" t="s">
         <v>950</v>
       </c>
@@ -15241,7 +15253,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="644" spans="2:7">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B644" t="s">
         <v>951</v>
       </c>
@@ -15258,7 +15270,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="645" spans="2:7">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B645" t="s">
         <v>952</v>
       </c>
@@ -15278,7 +15290,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="646" spans="2:7">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B646" t="s">
         <v>953</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="647" spans="2:7">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B647" t="s">
         <v>954</v>
       </c>
@@ -15315,7 +15327,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="648" spans="2:7">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B648" t="s">
         <v>956</v>
       </c>
@@ -15332,7 +15344,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="649" spans="2:7">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B649" t="s">
         <v>957</v>
       </c>
@@ -15349,7 +15361,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="650" spans="2:7">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B650" t="s">
         <v>958</v>
       </c>
@@ -15366,7 +15378,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="651" spans="2:7">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B651" t="s">
         <v>959</v>
       </c>
@@ -15383,7 +15395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="652" spans="2:7">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B652" t="s">
         <v>960</v>
       </c>
@@ -15400,7 +15412,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="653" spans="2:7">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B653" t="s">
         <v>961</v>
       </c>
@@ -15420,7 +15432,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="654" spans="2:7">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B654" t="s">
         <v>962</v>
       </c>
@@ -15440,7 +15452,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="655" spans="2:7">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B655" t="s">
         <v>963</v>
       </c>
@@ -15457,7 +15469,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="656" spans="2:7">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B656" t="s">
         <v>964</v>
       </c>
@@ -15477,7 +15489,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="657" spans="2:7">
+    <row r="657" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B657" t="s">
         <v>965</v>
       </c>
@@ -15494,7 +15506,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="658" spans="2:7">
+    <row r="658" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B658" t="s">
         <v>967</v>
       </c>
@@ -15514,7 +15526,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="659" spans="2:7">
+    <row r="659" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B659" t="s">
         <v>968</v>
       </c>
@@ -15538,36 +15550,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA2EBA8-C801-4CA1-90F5-8FF2C67759D5}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AS158"/>
   <sheetViews>
-    <sheetView topLeftCell="R20" workbookViewId="0" xr3:uid="{71AD8A34-6161-5941-B6D0-DED0A7B947C3}">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="11"/>
-    <col min="7" max="13" width="6.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="6.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="4" max="4" width="12.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="11"/>
+    <col min="7" max="13" width="6.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="11" customWidth="1"/>
+    <col min="15" max="16" width="6.6640625" style="11" customWidth="1"/>
     <col min="17" max="17" width="8" style="11" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="48.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="48.109375" style="11" customWidth="1"/>
     <col min="21" max="21" width="16" style="11" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="11" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="11" customWidth="1"/>
-    <col min="24" max="27" width="10.28515625" style="11" customWidth="1"/>
-    <col min="28" max="39" width="9.140625" style="11"/>
-    <col min="40" max="40" width="9.5703125" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="11"/>
+    <col min="22" max="22" width="5.6640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" style="11" customWidth="1"/>
+    <col min="24" max="27" width="10.33203125" style="11" customWidth="1"/>
+    <col min="28" max="39" width="9.109375" style="11"/>
+    <col min="40" max="40" width="9.5546875" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>193</v>
       </c>
@@ -15610,7 +15623,7 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -15651,7 +15664,7 @@
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>981</v>
       </c>
@@ -15696,7 +15709,7 @@
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>989</v>
       </c>
@@ -15739,7 +15752,7 @@
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22" t="s">
         <v>996</v>
@@ -15778,7 +15791,7 @@
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -15815,7 +15828,7 @@
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>1004</v>
       </c>
@@ -15848,7 +15861,7 @@
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
         <v>1005</v>
@@ -15879,7 +15892,7 @@
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="22" t="s">
         <v>1006</v>
@@ -15910,7 +15923,7 @@
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>174</v>
       </c>
@@ -15941,7 +15954,7 @@
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="12" t="s">
         <v>1007</v>
@@ -15972,7 +15985,7 @@
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>1008</v>
       </c>
@@ -16005,7 +16018,7 @@
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -16034,7 +16047,7 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -16069,7 +16082,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -16120,7 +16133,7 @@
       <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>1017</v>
       </c>
@@ -16165,7 +16178,7 @@
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -16210,7 +16223,7 @@
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -16287,7 +16300,7 @@
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -16348,7 +16361,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>1037</v>
       </c>
@@ -16455,7 +16468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -16509,11 +16522,11 @@
         <v>6</v>
       </c>
       <c r="AK23" s="22">
-        <f t="shared" ref="AK23:AK24" si="0">AI23</f>
+        <f>AI23</f>
         <v>5</v>
       </c>
       <c r="AL23" s="22">
-        <f t="shared" ref="AL23:AL24" si="1">AI23*AJ23</f>
+        <f>AI23*AJ23</f>
         <v>30</v>
       </c>
       <c r="AM23" s="22">
@@ -16521,7 +16534,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -16584,7 +16597,7 @@
       <c r="AL24" s="22"/>
       <c r="AM24" s="22"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -16627,7 +16640,7 @@
       <c r="AL25" s="22"/>
       <c r="AM25" s="22"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>1055</v>
       </c>
@@ -16690,7 +16703,7 @@
       <c r="AL26" s="22"/>
       <c r="AM26" s="22"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="22" t="s">
         <v>1066</v>
@@ -16759,7 +16772,7 @@
       <c r="AL27" s="22"/>
       <c r="AM27" s="22"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="22" t="s">
         <v>1079</v>
@@ -16822,7 +16835,7 @@
       <c r="AL28" s="22"/>
       <c r="AM28" s="22"/>
     </row>
-    <row r="29" spans="1:39" ht="30">
+    <row r="29" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="22" t="s">
         <v>1090</v>
@@ -16893,7 +16906,7 @@
       <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
     </row>
-    <row r="30" spans="1:39" ht="30">
+    <row r="30" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -16957,7 +16970,7 @@
       <c r="AL30" s="22"/>
       <c r="AM30" s="22"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -16999,7 +17012,7 @@
         <v>1112</v>
       </c>
       <c r="AA31" s="24"/>
-      <c r="AB31" s="27" t="s">
+      <c r="AB31" s="25" t="s">
         <v>1113</v>
       </c>
       <c r="AC31" s="24"/>
@@ -17017,7 +17030,7 @@
       <c r="AL31" s="22"/>
       <c r="AM31" s="22"/>
     </row>
-    <row r="32" spans="1:39" ht="30">
+    <row r="32" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -17078,7 +17091,7 @@
       <c r="AL32" s="22"/>
       <c r="AM32" s="22"/>
     </row>
-    <row r="33" spans="2:45">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B33" s="22" t="s">
         <v>1120</v>
       </c>
@@ -17142,7 +17155,7 @@
       <c r="AR33" s="24"/>
       <c r="AS33" s="24"/>
     </row>
-    <row r="34" spans="2:45">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B34" s="22" t="s">
         <v>1079</v>
       </c>
@@ -17210,7 +17223,7 @@
       <c r="AR34" s="24"/>
       <c r="AS34" s="24"/>
     </row>
-    <row r="35" spans="2:45">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
         <v>1081</v>
       </c>
@@ -17274,7 +17287,7 @@
       <c r="AR35" s="22"/>
       <c r="AS35" s="22"/>
     </row>
-    <row r="36" spans="2:45">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -17322,7 +17335,7 @@
       <c r="AR36" s="22"/>
       <c r="AS36" s="22"/>
     </row>
-    <row r="37" spans="2:45">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -17378,7 +17391,7 @@
       <c r="AR37" s="22"/>
       <c r="AS37" s="22"/>
     </row>
-    <row r="38" spans="2:45">
+    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -17421,12 +17434,12 @@
         <v>1147</v>
       </c>
       <c r="AG38" s="28"/>
-      <c r="AH38" s="25" t="s">
+      <c r="AH38" s="26" t="s">
         <v>1148</v>
       </c>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
       <c r="AL38" s="22"/>
       <c r="AM38" s="22"/>
       <c r="AN38" s="22"/>
@@ -17436,7 +17449,7 @@
       <c r="AR38" s="22"/>
       <c r="AS38" s="22"/>
     </row>
-    <row r="39" spans="2:45">
+    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B39" s="22" t="s">
         <v>1149</v>
       </c>
@@ -17479,12 +17492,12 @@
         <v>1152</v>
       </c>
       <c r="AG39" s="28"/>
-      <c r="AH39" s="26" t="s">
+      <c r="AH39" s="27" t="s">
         <v>1153</v>
       </c>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
       <c r="AL39" s="22"/>
       <c r="AM39" s="22"/>
       <c r="AN39" s="22"/>
@@ -17494,7 +17507,7 @@
       <c r="AR39" s="22"/>
       <c r="AS39" s="22"/>
     </row>
-    <row r="40" spans="2:45">
+    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B40" s="22" t="s">
         <v>1081</v>
       </c>
@@ -17533,17 +17546,17 @@
       <c r="AC40" s="24"/>
       <c r="AD40" s="22"/>
       <c r="AE40" s="22"/>
-      <c r="AF40" s="26" t="s">
+      <c r="AF40" s="27" t="s">
         <v>1156</v>
       </c>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26" t="s">
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27" t="s">
         <v>1157</v>
       </c>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
       <c r="AM40" s="22"/>
       <c r="AN40" s="22"/>
       <c r="AO40" s="22"/>
@@ -17552,7 +17565,7 @@
       <c r="AR40" s="22"/>
       <c r="AS40" s="22"/>
     </row>
-    <row r="41" spans="2:45" ht="15" customHeight="1">
+    <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="22" t="s">
         <v>1158</v>
       </c>
@@ -17589,11 +17602,11 @@
         <v>1162</v>
       </c>
       <c r="Y41" s="24"/>
-      <c r="Z41" s="27" t="s">
+      <c r="Z41" s="25" t="s">
         <v>1163</v>
       </c>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="22"/>
@@ -17616,7 +17629,7 @@
       <c r="AR41" s="22"/>
       <c r="AS41" s="22"/>
     </row>
-    <row r="42" spans="2:45">
+    <row r="42" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -17672,7 +17685,7 @@
       <c r="AR42" s="22"/>
       <c r="AS42" s="22"/>
     </row>
-    <row r="43" spans="2:45">
+    <row r="43" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -17726,7 +17739,7 @@
       <c r="AR43" s="22"/>
       <c r="AS43" s="22"/>
     </row>
-    <row r="44" spans="2:45">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -17776,7 +17789,7 @@
       <c r="AR44" s="22"/>
       <c r="AS44" s="22"/>
     </row>
-    <row r="45" spans="2:45">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B45" s="22" t="s">
         <v>1173</v>
       </c>
@@ -17824,7 +17837,7 @@
       <c r="AR45" s="22"/>
       <c r="AS45" s="22"/>
     </row>
-    <row r="46" spans="2:45">
+    <row r="46" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B46" s="22" t="s">
         <v>1081</v>
       </c>
@@ -17872,7 +17885,7 @@
       <c r="AR46" s="22"/>
       <c r="AS46" s="22"/>
     </row>
-    <row r="47" spans="2:45">
+    <row r="47" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B47" s="22" t="s">
         <v>1135</v>
       </c>
@@ -17922,7 +17935,7 @@
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
     </row>
-    <row r="48" spans="2:45">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -17970,7 +17983,7 @@
       <c r="AR48" s="22"/>
       <c r="AS48" s="22"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -17997,7 +18010,7 @@
       <c r="X49" s="22"/>
       <c r="Y49" s="22"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -18024,7 +18037,7 @@
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -18051,7 +18064,7 @@
       <c r="X51" s="22"/>
       <c r="Y51" s="22"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -18078,7 +18091,7 @@
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="22" t="s">
         <v>1176</v>
@@ -18107,7 +18120,7 @@
       <c r="X53" s="22"/>
       <c r="Y53" s="22"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="22" t="s">
         <v>1080</v>
@@ -18142,7 +18155,7 @@
       <c r="X54" s="22"/>
       <c r="Y54" s="22"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="22" t="s">
         <v>1072</v>
@@ -18177,7 +18190,7 @@
       <c r="X55" s="22"/>
       <c r="Y55" s="22"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -18206,7 +18219,7 @@
       <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>1021</v>
       </c>
@@ -18243,7 +18256,7 @@
       <c r="X57" s="22"/>
       <c r="Y57" s="22"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>1</v>
       </c>
@@ -18282,7 +18295,7 @@
       <c r="X58" s="22"/>
       <c r="Y58" s="22"/>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
         <v>2</v>
       </c>
@@ -18317,7 +18330,7 @@
       <c r="X59" s="22"/>
       <c r="Y59" s="22"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
         <v>3</v>
       </c>
@@ -18352,7 +18365,7 @@
       <c r="X60" s="22"/>
       <c r="Y60" s="22"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>4</v>
       </c>
@@ -18385,7 +18398,7 @@
       <c r="X61" s="22"/>
       <c r="Y61" s="22"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
         <v>5</v>
       </c>
@@ -18418,7 +18431,7 @@
       <c r="X62" s="22"/>
       <c r="Y62" s="22"/>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>6</v>
       </c>
@@ -18455,7 +18468,7 @@
       <c r="X63" s="22"/>
       <c r="Y63" s="22"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <v>7</v>
       </c>
@@ -18492,7 +18505,7 @@
       <c r="X64" s="22"/>
       <c r="Y64" s="22"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
         <v>8</v>
       </c>
@@ -18522,7 +18535,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <v>9</v>
       </c>
@@ -18556,7 +18569,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="22">
         <v>10</v>
       </c>
@@ -18588,7 +18601,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <v>11</v>
       </c>
@@ -18618,7 +18631,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="22">
         <v>12</v>
       </c>
@@ -18640,7 +18653,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="22">
         <v>13</v>
       </c>
@@ -18670,7 +18683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="22">
         <v>14</v>
       </c>
@@ -18696,7 +18709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <v>15</v>
       </c>
@@ -18726,7 +18739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <v>16</v>
       </c>
@@ -18752,7 +18765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>17</v>
       </c>
@@ -18782,7 +18795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <v>18</v>
       </c>
@@ -18810,7 +18823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <v>19</v>
       </c>
@@ -18836,7 +18849,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="22">
         <v>20</v>
       </c>
@@ -18860,7 +18873,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <v>21</v>
       </c>
@@ -18888,7 +18901,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
         <v>22</v>
       </c>
@@ -18910,7 +18923,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
         <v>23</v>
       </c>
@@ -18936,7 +18949,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="22">
         <v>24</v>
       </c>
@@ -18947,7 +18960,7 @@
       <c r="F81" s="24"/>
       <c r="G81" s="22"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="22">
         <v>25</v>
       </c>
@@ -18962,7 +18975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="22">
         <v>26</v>
       </c>
@@ -18973,7 +18986,7 @@
       <c r="F83" s="24"/>
       <c r="G83" s="22"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="22">
         <v>27</v>
       </c>
@@ -18988,7 +19001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="22">
         <v>28</v>
       </c>
@@ -18999,7 +19012,7 @@
       <c r="F85" s="24"/>
       <c r="G85" s="22"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
         <v>29</v>
       </c>
@@ -19014,7 +19027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="22">
         <v>30</v>
       </c>
@@ -19027,7 +19040,7 @@
       <c r="F87" s="24"/>
       <c r="G87" s="22"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="22">
         <v>31</v>
       </c>
@@ -19044,7 +19057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="22">
         <v>32</v>
       </c>
@@ -19057,7 +19070,7 @@
       <c r="F89" s="24"/>
       <c r="G89" s="22"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="22">
         <v>33</v>
       </c>
@@ -19072,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="22">
         <v>34</v>
       </c>
@@ -19083,7 +19096,7 @@
       <c r="F91" s="24"/>
       <c r="G91" s="22"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="22">
         <v>35</v>
       </c>
@@ -19098,7 +19111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="22">
         <v>36</v>
       </c>
@@ -19109,7 +19122,7 @@
       <c r="F93" s="24"/>
       <c r="G93" s="22"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
         <v>37</v>
       </c>
@@ -19124,7 +19137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
         <v>38</v>
       </c>
@@ -19135,7 +19148,7 @@
       <c r="F95" s="24"/>
       <c r="G95" s="22"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="22">
         <v>39</v>
       </c>
@@ -19150,7 +19163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
         <v>40</v>
       </c>
@@ -19164,7 +19177,7 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="22">
         <v>41</v>
       </c>
@@ -19182,7 +19195,7 @@
       </c>
       <c r="H98" s="22"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="22">
         <v>42</v>
       </c>
@@ -19194,7 +19207,7 @@
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="22">
         <v>43</v>
       </c>
@@ -19210,7 +19223,7 @@
       </c>
       <c r="H100" s="22"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="22">
         <v>44</v>
       </c>
@@ -19222,7 +19235,7 @@
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="22">
         <v>45</v>
       </c>
@@ -19238,7 +19251,7 @@
       </c>
       <c r="H102" s="22"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="22">
         <v>46</v>
       </c>
@@ -19250,7 +19263,7 @@
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="22">
         <v>47</v>
       </c>
@@ -19266,7 +19279,7 @@
       </c>
       <c r="H104" s="22"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="22">
         <v>48</v>
       </c>
@@ -19280,7 +19293,7 @@
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="22">
         <v>49</v>
       </c>
@@ -19296,7 +19309,7 @@
       </c>
       <c r="H106" s="22"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
         <v>50</v>
       </c>
@@ -19310,7 +19323,7 @@
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="22">
         <v>51</v>
       </c>
@@ -19326,7 +19339,7 @@
       </c>
       <c r="H108" s="22"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
         <v>52</v>
       </c>
@@ -19338,7 +19351,7 @@
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="22">
         <v>53</v>
       </c>
@@ -19354,7 +19367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="22">
         <v>54</v>
       </c>
@@ -19366,7 +19379,7 @@
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="22">
         <v>55</v>
       </c>
@@ -19382,7 +19395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="22">
         <v>56</v>
       </c>
@@ -19394,7 +19407,7 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="22">
         <v>57</v>
       </c>
@@ -19410,7 +19423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="22">
         <v>58</v>
       </c>
@@ -19422,7 +19435,7 @@
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="22">
         <v>59</v>
       </c>
@@ -19438,7 +19451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="22">
         <v>60</v>
       </c>
@@ -19452,7 +19465,7 @@
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="22">
         <v>61</v>
       </c>
@@ -19468,7 +19481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="22">
         <v>62</v>
       </c>
@@ -19480,7 +19493,7 @@
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="22">
         <v>63</v>
       </c>
@@ -19496,7 +19509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
         <v>64</v>
       </c>
@@ -19508,7 +19521,7 @@
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="22">
         <v>65</v>
       </c>
@@ -19524,7 +19537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="22">
         <v>66</v>
       </c>
@@ -19536,7 +19549,7 @@
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="22">
         <v>67</v>
       </c>
@@ -19552,7 +19565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
         <v>68</v>
       </c>
@@ -19566,7 +19579,7 @@
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="22">
         <v>69</v>
       </c>
@@ -19582,7 +19595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
         <v>70</v>
       </c>
@@ -19596,7 +19609,7 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="22">
         <v>71</v>
       </c>
@@ -19612,7 +19625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="22">
         <v>72</v>
       </c>
@@ -19624,7 +19637,7 @@
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="22">
         <v>73</v>
       </c>
@@ -19640,7 +19653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="22">
         <v>74</v>
       </c>
@@ -19652,7 +19665,7 @@
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="22">
         <v>75</v>
       </c>
@@ -19668,7 +19681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="22">
         <v>76</v>
       </c>
@@ -19680,7 +19693,7 @@
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="22">
         <v>77</v>
       </c>
@@ -19696,7 +19709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <v>78</v>
       </c>
@@ -19708,7 +19721,7 @@
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="22">
         <v>79</v>
       </c>
@@ -19724,7 +19737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="22">
         <v>80</v>
       </c>
@@ -19738,7 +19751,7 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="22">
         <v>81</v>
       </c>
@@ -19754,7 +19767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="22">
         <v>82</v>
       </c>
@@ -19766,7 +19779,7 @@
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="22">
         <v>83</v>
       </c>
@@ -19782,7 +19795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="22">
         <v>84</v>
       </c>
@@ -19794,7 +19807,7 @@
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="22">
         <v>85</v>
       </c>
@@ -19810,7 +19823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="22">
         <v>86</v>
       </c>
@@ -19822,7 +19835,7 @@
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="22">
         <v>87</v>
       </c>
@@ -19838,7 +19851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="22">
         <v>88</v>
       </c>
@@ -19850,7 +19863,7 @@
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="22">
         <v>89</v>
       </c>
@@ -19866,7 +19879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="22">
         <v>90</v>
       </c>
@@ -19880,7 +19893,7 @@
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="22">
         <v>91</v>
       </c>
@@ -19896,7 +19909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="22">
         <v>92</v>
       </c>
@@ -19908,7 +19921,7 @@
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="22">
         <v>93</v>
       </c>
@@ -19924,7 +19937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="22">
         <v>94</v>
       </c>
@@ -19936,7 +19949,7 @@
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="22">
         <v>95</v>
       </c>
@@ -19952,7 +19965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="22">
         <v>96</v>
       </c>
@@ -19964,7 +19977,7 @@
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="22">
         <v>97</v>
       </c>
@@ -19980,7 +19993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="22">
         <v>98</v>
       </c>
@@ -19992,7 +20005,7 @@
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="22">
         <v>99</v>
       </c>
@@ -20008,7 +20021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="22">
         <v>100</v>
       </c>
@@ -20026,7 +20039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="14"/>
@@ -20038,6 +20051,262 @@
     </row>
   </sheetData>
   <mergeCells count="280">
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AH40:AL40"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AD35:AI35"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AJ33:AN33"/>
+    <mergeCell ref="AH42:AK42"/>
+    <mergeCell ref="AJ34:AN34"/>
+    <mergeCell ref="AH41:AL41"/>
+    <mergeCell ref="AH39:AK39"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="Z39:AC39"/>
+    <mergeCell ref="W35:AC35"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
     <mergeCell ref="AO33:AS33"/>
     <mergeCell ref="AO34:AS34"/>
     <mergeCell ref="E154:F154"/>
@@ -20062,262 +20331,6 @@
     <mergeCell ref="E137:F137"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="Z40:AC40"/>
-    <mergeCell ref="Z39:AC39"/>
-    <mergeCell ref="W35:AC35"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AH40:AL40"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AD35:AI35"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AJ33:AN33"/>
-    <mergeCell ref="AH42:AK42"/>
-    <mergeCell ref="AJ34:AN34"/>
-    <mergeCell ref="AH41:AL41"/>
-    <mergeCell ref="AH39:AK39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20325,26 +20338,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F661C8FC-27B4-41CE-A876-49E43108556E}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" xr3:uid="{C4989538-63F2-5CCC-B516-6AB2C07831AF}">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="20" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="9.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="20" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="20"/>
-    <col min="17" max="17" width="37.5703125" style="20" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="12.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="20" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="20"/>
+    <col min="8" max="8" width="9.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="51.6640625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="20" customWidth="1"/>
+    <col min="11" max="16" width="9.109375" style="20"/>
+    <col min="17" max="17" width="37.5546875" style="20" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>1219</v>
       </c>
@@ -20355,7 +20369,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1222</v>
       </c>
@@ -20384,7 +20398,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>1230</v>
       </c>
@@ -20396,12 +20410,12 @@
       </c>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="H5" s="20">
         <v>2</v>
@@ -20422,12 +20436,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I6" s="20" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30">
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H7" s="20">
         <v>3</v>
       </c>
@@ -20447,12 +20461,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I8" s="20" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45">
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H9" s="20">
         <v>4</v>
       </c>
@@ -20472,12 +20486,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I10" s="20" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="45">
+    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="H11" s="20">
         <v>5</v>
       </c>
@@ -20497,12 +20511,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I12" s="20" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>1249</v>
       </c>
@@ -20525,7 +20539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="45">
+    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>1253</v>
       </c>
@@ -20539,7 +20553,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>1257</v>
       </c>
@@ -20547,7 +20561,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="18" spans="8:11" ht="30">
+    <row r="18" spans="8:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="I18" s="18" t="s">
         <v>1259</v>
       </c>
@@ -20558,7 +20572,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="20" spans="8:11" ht="30">
+    <row r="20" spans="8:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="I20" s="18" t="s">
         <v>1261</v>
       </c>
@@ -20569,12 +20583,12 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I21" s="20" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="26" spans="8:11">
+    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
         <v>1264</v>
       </c>
@@ -20588,7 +20602,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="27" spans="8:11">
+    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I27" s="20" t="s">
         <v>1267</v>
       </c>
@@ -20599,7 +20613,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="28" spans="8:11">
+    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I28" s="20" t="s">
         <v>1270</v>
       </c>
@@ -20610,7 +20624,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
+    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I29" s="20" t="s">
         <v>1273</v>
       </c>
@@ -20628,23 +20642,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F43D9E8-1050-4773-A815-4A3BC01171C8}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{B051A364-941E-514D-AE6A-43DBCDEA90AC}">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>1276</v>
       </c>
